--- a/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Tratamento de dados Selic x Ações.xlsx
+++ b/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Tratamento de dados Selic x Ações.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Insights\Dados Siderurgia Brasileira 2016~2022\2 Entrega - Cliclo 2\Passo 05 - Exploração dos dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BD3933-9FB9-4139-BF68-3E8A4AEDDBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B501457-D165-4A2A-BC6E-FFC785E7F2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Banco de Dados Cotações.csv" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="4. Ações &amp; Variações" sheetId="6" r:id="rId4"/>
     <sheet name="5. Cotações Selic" sheetId="5" r:id="rId5"/>
     <sheet name="6. Comparativo" sheetId="7" r:id="rId6"/>
-    <sheet name="o que eu estou fazendo" sheetId="2" r:id="rId7"/>
+    <sheet name="7. Análise Gráfica" sheetId="8" r:id="rId7"/>
+    <sheet name="Planilha2" sheetId="9" r:id="rId8"/>
+    <sheet name="o que eu estou fazendo" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.Banco de Dados Cotações.csv'!$B$2:$E$2381</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
   <si>
     <t>Mes/Ano</t>
   </si>
@@ -176,22 +178,88 @@
     <t>Rendimento Anual</t>
   </si>
   <si>
-    <t>Média</t>
-  </si>
-  <si>
     <t>Comparativo com média</t>
   </si>
   <si>
     <t>Média Ações</t>
   </si>
   <si>
-    <t>Soma</t>
+    <t>2019~2021</t>
   </si>
   <si>
-    <t>Ações</t>
+    <t>Rendimento Selic</t>
   </si>
   <si>
-    <t>2019~2021</t>
+    <t>Rendimento Médio das Ações</t>
+  </si>
+  <si>
+    <t>fato que possa ser preso</t>
+  </si>
+  <si>
+    <t>caixa da rejane</t>
+  </si>
+  <si>
+    <t>unicuritiba</t>
+  </si>
+  <si>
+    <t>tem que vc ano tem emprego</t>
+  </si>
+  <si>
+    <t>não transo</t>
+  </si>
+  <si>
+    <t>Obesidade</t>
+  </si>
+  <si>
+    <t>baixa app de exercicio</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Levar Centro</t>
+  </si>
+  <si>
+    <t>resolver problemas</t>
+  </si>
+  <si>
+    <t>pega no notebook</t>
+  </si>
+  <si>
+    <t>deixa pra depois</t>
+  </si>
+  <si>
+    <t>não posso fazer nada</t>
+  </si>
+  <si>
+    <t>emprega</t>
+  </si>
+  <si>
+    <t>ansiedade</t>
+  </si>
+  <si>
+    <t>2017~2021</t>
+  </si>
+  <si>
+    <t>2013~21</t>
+  </si>
+  <si>
+    <t>Últimos 3a</t>
+  </si>
+  <si>
+    <t>Últimos 5a</t>
+  </si>
+  <si>
+    <t>Últimos 9a</t>
+  </si>
+  <si>
+    <t>RENDIMENTO TOTAL</t>
+  </si>
+  <si>
+    <t>Rendimento Selic x rendimento ações nos últimos anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verificar sobre as tendencias da Selic o que é Selic </t>
   </si>
 </sst>
 </file>
@@ -199,9 +267,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +420,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -867,7 +942,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -919,13 +994,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -983,6 +1059,5436 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Selic x Média das Ações</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5039123630672927E-2"/>
+          <c:y val="0.22838694365331996"/>
+          <c:w val="0.95409494001043293"/>
+          <c:h val="0.73969816272965883"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rendimento Selic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.79E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3499999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B02D-4DEF-89B4-0C06CD1250D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rendimento Médio das Ações</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23391942655040829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.49487645263635222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.578072185510906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2534784540925028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4947554868687904E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18304975174946492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42125643358500886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7755791387553348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0276306120707635E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B02D-4DEF-89B4-0C06CD1250D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="559790792"/>
+        <c:axId val="559788496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="559790792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559788496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559788496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="559790792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1">
+          <a:alpha val="99000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Valorização das ações mês a mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18700508530183726"/>
+          <c:y val="4.0627885503231764E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GGBR4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11181669395141258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.43688280957990833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.68756004467701193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3307746857630582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1277000364860591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10902732903646473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41290204002332842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55468087727718651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14905437496641183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F110-4EA5-A086-E3596994A66C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GGBR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1946246020095548E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.39164904371130094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.86423155758436354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.173439894980109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26322958386239692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15987887446520788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43663708302000315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54310326513421803</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20169570033067252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F110-4EA5-A086-E3596994A66C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSNA3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.55799533967971671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65609750461784733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18242495427134242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2562207815343414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.19608695574239232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28024305174672215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4142301777116949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2289532738545996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.13992115693496143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F110-4EA5-A086-E3596994A66C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="618623512"/>
+        <c:axId val="618623840"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6. Comparativo'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Rendimento Selic</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6. Comparativo'!$B$2:$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6. Comparativo'!$B$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>7.9200000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.104</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.12540000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.13200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.5299999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.2399999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.79E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.7199999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>4.3499999999999997E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F110-4EA5-A086-E3596994A66C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6. Comparativo'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Rendimento Médio das Ações</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6. Comparativo'!$B$2:$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6. Comparativo'!$B$4:$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.23391942655040829</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.49487645263635222</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.578072185510906</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2534784540925028</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.4947554868687904E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.18304975174946492</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.42125643358500886</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7755791387553348</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.0276306120707635E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F110-4EA5-A086-E3596994A66C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="618623512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618623840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618623840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618623512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Últimos 3 anos (2019~2021)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019~2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rendimento Selic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rendimento Médio das Ações</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GGBR4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GGBR3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSNA3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2671118784610513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1166372922669268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1814360484848936</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5032622946313332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7E7-4EF0-AAEA-273536E99193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="482751792"/>
+        <c:axId val="482753432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482751792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482753432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482753432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482751792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Últimos 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> anos (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2017~2021)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017~2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rendimento Selic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rendimento Médio das Ações</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GGBR4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GGBR3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSNA3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5151091850792042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3533646577894505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6045445068124984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5874183906356629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FED7-424E-9DDF-38235C5CADFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="482751792"/>
+        <c:axId val="482753432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482751792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482753432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482753432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482751792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Últimos 9</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> anos (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2013~2021)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013~21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'6. Comparativo'!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rendimento Selic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rendimento Médio das Ações</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GGBR4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GGBR3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSNA3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6. Comparativo'!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.929558427574857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6715131832470012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5540500465170388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5631120529605314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E712-442D-9D76-A82DE47C53FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="482751792"/>
+        <c:axId val="482753432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482751792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482753432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482753432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482751792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4A109F-1F4E-4539-B7BE-96245E00D77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43597BF-8940-46BE-8F94-40F061BE4A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A112E3B8-83B1-42E7-965D-0B5388F0F881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCD989A-CF1B-417C-8AC5-57F405A5D229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48F1300-E417-49CD-9388-D33E3E8F2C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1285,8 +6791,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H2381"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="F436" sqref="F436"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44597,43 +50103,43 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">INDIRECT(C21)</f>
+        <f t="shared" ref="C4:L4" ca="1" si="0">INDIRECT(C21)</f>
         <v>6.6358261108398402</v>
       </c>
       <c r="D4" s="3">
-        <f ca="1">INDIRECT(D21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7.82639455795288</v>
       </c>
       <c r="E4" s="3">
-        <f ca="1">INDIRECT(E21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3.13877868652343</v>
       </c>
       <c r="F4" s="3">
-        <f ca="1">INDIRECT(F21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.7601609230041499</v>
       </c>
       <c r="G4" s="3">
-        <f ca="1">INDIRECT(G21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8.9802427291870099</v>
       </c>
       <c r="H4" s="3">
-        <f ca="1">INDIRECT(H21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8.5448360443115199</v>
       </c>
       <c r="I4" s="3">
-        <f ca="1">INDIRECT(I21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>8.5114278793334908</v>
       </c>
       <c r="J4" s="3">
-        <f ca="1">INDIRECT(J21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12.0613803863525</v>
       </c>
       <c r="K4" s="3">
-        <f ca="1">INDIRECT(K21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28.4830818176269</v>
       </c>
       <c r="L4" s="37">
-        <f ca="1">INDIRECT(L21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>25.126903533935501</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -44647,35 +50153,35 @@
         <v>14</v>
       </c>
       <c r="Q4" s="25">
-        <f t="shared" ref="Q4:X4" si="0">P15+1</f>
+        <f t="shared" ref="Q4:X4" si="1">P15+1</f>
         <v>26</v>
       </c>
       <c r="R4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="S4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="T4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="U4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="V4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="W4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="X4" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -44684,43 +50190,43 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">INDIRECT(C22)</f>
+        <f t="shared" ref="C5:L5" ca="1" si="2">INDIRECT(C22)</f>
         <v>6.1728620529174796</v>
       </c>
       <c r="D5" s="3">
-        <f ca="1">INDIRECT(D22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>6.9451389312744096</v>
       </c>
       <c r="E5" s="3">
-        <f ca="1">INDIRECT(E22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3.86368680000305</v>
       </c>
       <c r="F5" s="3">
-        <f ca="1">INDIRECT(F22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4.0430526733398402</v>
       </c>
       <c r="G5" s="3">
-        <f ca="1">INDIRECT(G22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>9.3145704269409109</v>
       </c>
       <c r="H5" s="3">
-        <f ca="1">INDIRECT(H22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>7.8917274475097603</v>
       </c>
       <c r="I5" s="3">
-        <f ca="1">INDIRECT(I22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.9146566390991</v>
       </c>
       <c r="J5" s="3">
-        <f ca="1">INDIRECT(J22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10.4531955718994</v>
       </c>
       <c r="K5" s="45">
-        <f ca="1">INDIRECT(K22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>30.797328948974599</v>
       </c>
       <c r="L5" s="4">
-        <f ca="1">INDIRECT(L22)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>24.694021224975501</v>
       </c>
       <c r="N5" s="11" t="s">
@@ -44735,35 +50241,35 @@
         <v>15</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" ref="Q5:X15" si="1">Q4+1</f>
+        <f t="shared" ref="Q5:X15" si="3">Q4+1</f>
         <v>27</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
     </row>
@@ -44772,86 +50278,86 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">INDIRECT(C23)</f>
+        <f t="shared" ref="C6:L6" ca="1" si="4">INDIRECT(C23)</f>
         <v>5.63582420349121</v>
       </c>
       <c r="D6" s="3">
-        <f ca="1">INDIRECT(D23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>7.0903329849243102</v>
       </c>
       <c r="E6" s="3">
-        <f ca="1">INDIRECT(E23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4.2141051292419398</v>
       </c>
       <c r="F6" s="3">
-        <f ca="1">INDIRECT(F23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5.5436477661132804</v>
       </c>
       <c r="G6" s="3">
-        <f ca="1">INDIRECT(G23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>7.0831165313720703</v>
       </c>
       <c r="H6" s="3">
-        <f ca="1">INDIRECT(H23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6.8420896530151296</v>
       </c>
       <c r="I6" s="3">
-        <f ca="1">INDIRECT(I23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>13.5598745346069</v>
       </c>
       <c r="J6" s="45">
-        <f ca="1">INDIRECT(J23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6.5262355804443297</v>
       </c>
       <c r="K6" s="3">
-        <f ca="1">INDIRECT(K23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35.510162353515597</v>
       </c>
       <c r="L6" s="4">
-        <f ca="1">INDIRECT(L23)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>25.6089782714843</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:P15" si="2">O5+1</f>
+        <f t="shared" ref="O6:P15" si="5">O5+1</f>
         <v>4</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
     </row>
@@ -44860,86 +50366,86 @@
         <v>4</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">INDIRECT(C24)</f>
+        <f t="shared" ref="C7:L7" ca="1" si="6">INDIRECT(C24)</f>
         <v>5.0790462493896396</v>
       </c>
       <c r="D7" s="3">
-        <f ca="1">INDIRECT(D24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6.1680140495300204</v>
       </c>
       <c r="E7" s="3">
-        <f ca="1">INDIRECT(E24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6.2434067726135201</v>
       </c>
       <c r="F7" s="3">
-        <f ca="1">INDIRECT(F24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>10.216483116149901</v>
       </c>
       <c r="G7" s="3">
-        <f ca="1">INDIRECT(G24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6.0257039070129297</v>
       </c>
       <c r="H7" s="3">
-        <f ca="1">INDIRECT(H24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6.8265395164489702</v>
       </c>
       <c r="I7" s="45">
-        <f ca="1">INDIRECT(I24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>12.689937591552701</v>
       </c>
       <c r="J7" s="3">
-        <f ca="1">INDIRECT(J24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>8.3775167465209908</v>
       </c>
       <c r="K7" s="3">
-        <f ca="1">INDIRECT(K24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>46.088249206542898</v>
       </c>
       <c r="L7" s="4">
-        <f ca="1">INDIRECT(L24)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20.729202270507798</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
     </row>
@@ -44948,86 +50454,86 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">INDIRECT(C25)</f>
+        <f t="shared" ref="C8:L8" ca="1" si="7">INDIRECT(C25)</f>
         <v>4.2443108558654696</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">INDIRECT(D25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>6.1896300315856898</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">INDIRECT(E25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4.7739124298095703</v>
       </c>
       <c r="F8" s="3">
-        <f ca="1">INDIRECT(F25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.08491659164428</v>
       </c>
       <c r="G8" s="3">
-        <f ca="1">INDIRECT(G25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.3337202072143501</v>
       </c>
       <c r="H8" s="45">
-        <f ca="1">INDIRECT(H25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>5.9868278503417898</v>
       </c>
       <c r="I8" s="3">
-        <f ca="1">INDIRECT(I25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>15.145189285278301</v>
       </c>
       <c r="J8" s="3">
-        <f ca="1">INDIRECT(J25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>9.6692562103271396</v>
       </c>
       <c r="K8" s="3">
-        <f ca="1">INDIRECT(K25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>42.6536865234375</v>
       </c>
       <c r="L8" s="4">
-        <f ca="1">INDIRECT(L25)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>21.840000152587798</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
     </row>
@@ -45036,86 +50542,86 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">INDIRECT(C26)</f>
+        <f t="shared" ref="C9:L9" ca="1" si="8">INDIRECT(C26)</f>
         <v>3.82694244384765</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">INDIRECT(D26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>6.7732853889465297</v>
       </c>
       <c r="E9" s="3">
-        <f ca="1">INDIRECT(E26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>4.03527784347534</v>
       </c>
       <c r="F9" s="3">
-        <f ca="1">INDIRECT(F26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>6.0801286697387598</v>
       </c>
       <c r="G9" s="45">
-        <f ca="1">INDIRECT(G26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>5.5825219154357901</v>
       </c>
       <c r="H9" s="3">
-        <f ca="1">INDIRECT(H26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>6.1112303733825604</v>
       </c>
       <c r="I9" s="3">
-        <f ca="1">INDIRECT(I26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>15.3008527755737</v>
       </c>
       <c r="J9" s="3">
-        <f ca="1">INDIRECT(J26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>10.006556510925201</v>
       </c>
       <c r="K9" s="3">
-        <f ca="1">INDIRECT(K26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>41.770610809326101</v>
       </c>
       <c r="L9" s="4">
-        <f ca="1">INDIRECT(L26)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>15.439999580383301</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
     </row>
@@ -45124,86 +50630,86 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">INDIRECT(C27)</f>
+        <f t="shared" ref="C10:L10" ca="1" si="9">INDIRECT(C27)</f>
         <v>4.2186264991760201</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">INDIRECT(D27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>8.2504386901855398</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">INDIRECT(E27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>3.382169008255</v>
       </c>
       <c r="F10" s="45">
-        <f ca="1">INDIRECT(F27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>8.6070365905761701</v>
       </c>
       <c r="G10" s="3">
-        <f ca="1">INDIRECT(G27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>5.9246273040771396</v>
       </c>
       <c r="H10" s="3">
-        <f ca="1">INDIRECT(H27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>7.1375427246093697</v>
       </c>
       <c r="I10" s="3">
-        <f ca="1">INDIRECT(I27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>15.1360311508178</v>
       </c>
       <c r="J10" s="3">
-        <f ca="1">INDIRECT(J27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>11.4775581359863</v>
       </c>
       <c r="K10" s="3">
-        <f ca="1">INDIRECT(K27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44.391361236572202</v>
       </c>
       <c r="L10" s="4">
-        <f ca="1">INDIRECT(L27)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>14.7100000381469</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
     </row>
@@ -45212,39 +50718,39 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">INDIRECT(C28)</f>
+        <f t="shared" ref="C11:K11" ca="1" si="10">INDIRECT(C28)</f>
         <v>5.5817666053771902</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">INDIRECT(D28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>7.0903329849243102</v>
       </c>
       <c r="E11" s="45">
-        <f ca="1">INDIRECT(E28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>2.7212853431701598</v>
       </c>
       <c r="F11" s="3">
-        <f ca="1">INDIRECT(F28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>6.6865878105163503</v>
       </c>
       <c r="G11" s="3">
-        <f ca="1">INDIRECT(G28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>6.7565627098083496</v>
       </c>
       <c r="H11" s="3">
-        <f ca="1">INDIRECT(H28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>7.3265051841735804</v>
       </c>
       <c r="I11" s="3">
-        <f ca="1">INDIRECT(I28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>13.1490268707275</v>
       </c>
       <c r="J11" s="3">
-        <f ca="1">INDIRECT(J28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>14.2509107589721</v>
       </c>
       <c r="K11" s="3">
-        <f ca="1">INDIRECT(K28)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>34.024082183837798</v>
       </c>
       <c r="L11" s="4"/>
@@ -45252,43 +50758,43 @@
         <v>8</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
     </row>
@@ -45297,39 +50803,39 @@
         <v>9</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">INDIRECT(C29)</f>
+        <f t="shared" ref="C12:K12" ca="1" si="11">INDIRECT(C29)</f>
         <v>6.2121782302856401</v>
       </c>
       <c r="D12" s="45">
-        <f ca="1">INDIRECT(D29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.2688908576965297</v>
       </c>
       <c r="E12" s="3">
-        <f ca="1">INDIRECT(E29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>3.04783987998962</v>
       </c>
       <c r="F12" s="3">
-        <f ca="1">INDIRECT(F29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.0675673484802202</v>
       </c>
       <c r="G12" s="3">
-        <f ca="1">INDIRECT(G29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.4718723297119096</v>
       </c>
       <c r="H12" s="3">
-        <f ca="1">INDIRECT(H29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>7.7937984466552699</v>
       </c>
       <c r="I12" s="3">
-        <f ca="1">INDIRECT(I29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>12.369926452636699</v>
       </c>
       <c r="J12" s="3">
-        <f ca="1">INDIRECT(J29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>15.459567070007299</v>
       </c>
       <c r="K12" s="3">
-        <f ca="1">INDIRECT(K29)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>28.041072845458899</v>
       </c>
       <c r="L12" s="4"/>
@@ -45337,43 +50843,43 @@
         <v>9</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
     </row>
@@ -45382,39 +50888,39 @@
         <v>10</v>
       </c>
       <c r="C13" s="45">
-        <f ca="1">INDIRECT(C30)</f>
+        <f t="shared" ref="C13:K13" ca="1" si="12">INDIRECT(C30)</f>
         <v>8.0443115234375</v>
       </c>
       <c r="D13" s="3">
-        <f ca="1">INDIRECT(D30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>5.9446392059326101</v>
       </c>
       <c r="E13" s="3">
-        <f ca="1">INDIRECT(E30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3.3743939399719198</v>
       </c>
       <c r="F13" s="3">
-        <f ca="1">INDIRECT(F30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>8.3504590988159109</v>
       </c>
       <c r="G13" s="3">
-        <f ca="1">INDIRECT(G30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>6.5544109344482404</v>
       </c>
       <c r="H13" s="3">
-        <f ca="1">INDIRECT(H30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>7.9857220649719203</v>
       </c>
       <c r="I13" s="3">
-        <f ca="1">INDIRECT(I30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>11.0328912734985</v>
       </c>
       <c r="J13" s="3">
-        <f ca="1">INDIRECT(J30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>19.2448196411132</v>
       </c>
       <c r="K13" s="3">
-        <f ca="1">INDIRECT(K30)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>22.233751296996999</v>
       </c>
       <c r="L13" s="4"/>
@@ -45422,43 +50928,43 @@
         <v>10</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
     </row>
@@ -45467,39 +50973,39 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">INDIRECT(C31)</f>
+        <f t="shared" ref="C14:K14" ca="1" si="13">INDIRECT(C31)</f>
         <v>8.3299684524536097</v>
       </c>
       <c r="D14" s="3">
-        <f ca="1">INDIRECT(D31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>4.3594017028808496</v>
       </c>
       <c r="E14" s="3">
-        <f ca="1">INDIRECT(E31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>4.27630567550659</v>
       </c>
       <c r="F14" s="3">
-        <f ca="1">INDIRECT(F31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>9.6644515991210902</v>
       </c>
       <c r="G14" s="3">
-        <f ca="1">INDIRECT(G31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5.7224745750427202</v>
       </c>
       <c r="H14" s="3">
-        <f ca="1">INDIRECT(H31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>7.4016060829162598</v>
       </c>
       <c r="I14" s="3">
-        <f ca="1">INDIRECT(I31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>11.7434844970703</v>
       </c>
       <c r="J14" s="3">
-        <f ca="1">INDIRECT(J31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>22.027540206909102</v>
       </c>
       <c r="K14" s="3">
-        <f ca="1">INDIRECT(K31)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>21.2382087707519</v>
       </c>
       <c r="L14" s="4"/>
@@ -45507,43 +51013,43 @@
         <v>11</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
     </row>
@@ -45552,39 +51058,39 @@
         <v>12</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">INDIRECT(C32)</f>
+        <f t="shared" ref="C15:K15" ca="1" si="14">INDIRECT(C32)</f>
         <v>10.057512283325099</v>
       </c>
       <c r="D15" s="3">
-        <f ca="1">INDIRECT(D32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>4.0711765289306596</v>
       </c>
       <c r="E15" s="3">
-        <f ca="1">INDIRECT(E32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>3.1100401878356898</v>
       </c>
       <c r="F15" s="3">
-        <f ca="1">INDIRECT(F32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>8.4359846115112305</v>
       </c>
       <c r="G15" s="3">
-        <f ca="1">INDIRECT(G32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>6.5155348777770996</v>
       </c>
       <c r="H15" s="3">
-        <f ca="1">INDIRECT(H32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>7.3765726089477504</v>
       </c>
       <c r="I15" s="3">
-        <f ca="1">INDIRECT(I32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>13.192717552185</v>
       </c>
       <c r="J15" s="3">
-        <f ca="1">INDIRECT(J32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>29.841651916503899</v>
       </c>
       <c r="K15" s="3">
-        <f ca="1">INDIRECT(K32)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>24.3907566070556</v>
       </c>
       <c r="L15" s="4"/>
@@ -45592,43 +51098,43 @@
         <v>12</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
     </row>
@@ -45736,43 +51242,43 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O4)</f>
+        <f t="shared" ref="C21:C32" si="15">CONCATENATE("'2. Query Filtrada'!",$C$19,O4)</f>
         <v>'2. Query Filtrada'!D2</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P4)</f>
+        <f t="shared" ref="D21:D32" si="16">CONCATENATE("'2. Query Filtrada'!",$C$19,P4)</f>
         <v>'2. Query Filtrada'!D14</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q4)</f>
+        <f t="shared" ref="E21:E32" si="17">CONCATENATE("'2. Query Filtrada'!",$C$19,Q4)</f>
         <v>'2. Query Filtrada'!D26</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R4)</f>
+        <f t="shared" ref="F21:F32" si="18">CONCATENATE("'2. Query Filtrada'!",$C$19,R4)</f>
         <v>'2. Query Filtrada'!D38</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S4)</f>
+        <f t="shared" ref="G21:G32" si="19">CONCATENATE("'2. Query Filtrada'!",$C$19,S4)</f>
         <v>'2. Query Filtrada'!D50</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T4)</f>
+        <f t="shared" ref="H21:H32" si="20">CONCATENATE("'2. Query Filtrada'!",$C$19,T4)</f>
         <v>'2. Query Filtrada'!D62</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U4)</f>
+        <f t="shared" ref="I21:I32" si="21">CONCATENATE("'2. Query Filtrada'!",$C$19,U4)</f>
         <v>'2. Query Filtrada'!D74</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V4)</f>
+        <f t="shared" ref="J21:J32" si="22">CONCATENATE("'2. Query Filtrada'!",$C$19,V4)</f>
         <v>'2. Query Filtrada'!D86</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W4)</f>
+        <f t="shared" ref="K21:K32" si="23">CONCATENATE("'2. Query Filtrada'!",$C$19,W4)</f>
         <v>'2. Query Filtrada'!D98</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X4)</f>
+        <f t="shared" ref="L21:L32" si="24">CONCATENATE("'2. Query Filtrada'!",$C$19,X4)</f>
         <v>'2. Query Filtrada'!D110</v>
       </c>
     </row>
@@ -45781,43 +51287,43 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O5)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D3</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P5)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D15</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q5)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D27</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R5)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D39</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S5)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D51</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T5)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D63</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U5)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D75</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V5)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D87</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W5)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D99</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X5)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D111</v>
       </c>
     </row>
@@ -45826,43 +51332,43 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O6)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D4</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P6)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D16</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q6)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D28</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R6)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D40</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S6)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D52</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T6)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D64</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U6)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D76</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V6)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D88</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W6)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D100</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X6)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D112</v>
       </c>
     </row>
@@ -45871,43 +51377,43 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O7)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D5</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P7)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D17</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q7)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D29</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R7)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D41</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S7)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D53</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T7)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D65</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U7)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D77</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V7)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D89</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W7)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D101</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X7)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D113</v>
       </c>
     </row>
@@ -45916,43 +51422,43 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O8)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D6</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P8)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D18</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q8)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D30</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R8)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D42</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S8)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D54</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T8)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D66</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U8)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D78</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V8)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D90</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W8)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D102</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X8)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D114</v>
       </c>
     </row>
@@ -45961,43 +51467,43 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O9)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D7</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P9)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D19</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q9)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D31</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R9)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D43</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S9)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D55</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T9)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D67</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U9)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D79</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V9)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D91</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W9)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D103</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X9)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D115</v>
       </c>
     </row>
@@ -46006,43 +51512,43 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O10)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D8</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P10)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D20</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q10)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D32</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R10)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D44</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S10)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D56</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T10)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D68</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U10)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D80</v>
       </c>
       <c r="J27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V10)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D92</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W10)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D104</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X10)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D116</v>
       </c>
     </row>
@@ -46051,43 +51557,43 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O11)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D9</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P11)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D21</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q11)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D33</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R11)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D45</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S11)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D57</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T11)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D69</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U11)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D81</v>
       </c>
       <c r="J28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V11)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D93</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W11)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D105</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X11)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D117</v>
       </c>
     </row>
@@ -46096,43 +51602,43 @@
         <v>9</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O12)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D10</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P12)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D22</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q12)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D34</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R12)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D46</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S12)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D58</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T12)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D70</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U12)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D82</v>
       </c>
       <c r="J29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V12)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D94</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W12)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D106</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X12)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D118</v>
       </c>
     </row>
@@ -46141,43 +51647,43 @@
         <v>10</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O13)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D11</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P13)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D23</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q13)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D35</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R13)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D47</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S13)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D59</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T13)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D71</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U13)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D83</v>
       </c>
       <c r="J30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V13)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D95</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W13)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D107</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X13)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D119</v>
       </c>
     </row>
@@ -46186,43 +51692,43 @@
         <v>11</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O14)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D12</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P14)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D24</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q14)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D36</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R14)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D48</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S14)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D60</v>
       </c>
       <c r="H31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T14)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D72</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U14)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D84</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V14)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D96</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W14)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D108</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X14)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D120</v>
       </c>
     </row>
@@ -46231,43 +51737,43 @@
         <v>12</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,O15)</f>
+        <f t="shared" si="15"/>
         <v>'2. Query Filtrada'!D13</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,P15)</f>
+        <f t="shared" si="16"/>
         <v>'2. Query Filtrada'!D25</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,Q15)</f>
+        <f t="shared" si="17"/>
         <v>'2. Query Filtrada'!D37</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,R15)</f>
+        <f t="shared" si="18"/>
         <v>'2. Query Filtrada'!D49</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,S15)</f>
+        <f t="shared" si="19"/>
         <v>'2. Query Filtrada'!D61</v>
       </c>
       <c r="H32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,T15)</f>
+        <f t="shared" si="20"/>
         <v>'2. Query Filtrada'!D73</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,U15)</f>
+        <f t="shared" si="21"/>
         <v>'2. Query Filtrada'!D85</v>
       </c>
       <c r="J32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,V15)</f>
+        <f t="shared" si="22"/>
         <v>'2. Query Filtrada'!D97</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,W15)</f>
+        <f t="shared" si="23"/>
         <v>'2. Query Filtrada'!D109</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>CONCATENATE("'2. Query Filtrada'!",$C$19,X15)</f>
+        <f t="shared" si="24"/>
         <v>'2. Query Filtrada'!D121</v>
       </c>
     </row>
@@ -46743,9 +52249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63721A7B-277C-4F97-936A-F25CCC22C64B}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34:Z35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48425,7 +53931,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="48">
-        <f t="shared" ref="B23:K32" si="3">(B6/B5)-1</f>
+        <f t="shared" ref="B23:C32" si="3">(B6/B5)-1</f>
         <v>-6.4464636580795487E-2</v>
       </c>
       <c r="C23" s="48">
@@ -48468,7 +53974,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="48">
-        <f t="shared" ref="N23:W23" si="5">(N6/N5)-1</f>
+        <f t="shared" ref="N23" si="5">(N6/N5)-1</f>
         <v>-3.4621696316484818E-2</v>
       </c>
       <c r="O23" s="48">
@@ -48511,7 +54017,7 @@
         <v>3</v>
       </c>
       <c r="Z23" s="48">
-        <f t="shared" ref="Z23:AI23" si="7">(Z6/Z5)-1</f>
+        <f t="shared" ref="Z23" si="7">(Z6/Z5)-1</f>
         <v>-8.6999813833916639E-2</v>
       </c>
       <c r="AA23" s="48">
@@ -49088,7 +54594,7 @@
         <v>-2.2509507570869336E-2</v>
       </c>
       <c r="D28" s="48">
-        <f t="shared" ref="D28:K28" si="21">(D11/D10)-1</f>
+        <f t="shared" ref="D28:J28" si="21">(D11/D10)-1</f>
         <v>-9.9335064548938035E-2</v>
       </c>
       <c r="E28" s="48">
@@ -49120,7 +54626,7 @@
         <v>8</v>
       </c>
       <c r="N28" s="48">
-        <f t="shared" ref="N28:W28" si="22">(N11/N10)-1</f>
+        <f t="shared" ref="N28:V28" si="22">(N11/N10)-1</f>
         <v>0.1481258578842759</v>
       </c>
       <c r="O28" s="48">
@@ -49160,7 +54666,7 @@
         <v>8</v>
       </c>
       <c r="Z28" s="48">
-        <f t="shared" ref="Z28:AI28" si="23">(Z11/Z10)-1</f>
+        <f t="shared" ref="Z28:AH28" si="23">(Z11/Z10)-1</f>
         <v>0.32312415106372128</v>
       </c>
       <c r="AA28" s="48">
@@ -49210,7 +54716,7 @@
         <v>-9.3148585125572669E-2</v>
       </c>
       <c r="D29" s="48">
-        <f t="shared" ref="D29:K29" si="24">(D12/D11)-1</f>
+        <f t="shared" ref="D29:J29" si="24">(D12/D11)-1</f>
         <v>4.1904983970499909E-2</v>
       </c>
       <c r="E29" s="48">
@@ -49242,7 +54748,7 @@
         <v>9</v>
       </c>
       <c r="N29" s="48">
-        <f t="shared" ref="N29:W29" si="25">(N12/N11)-1</f>
+        <f t="shared" ref="N29:V29" si="25">(N12/N11)-1</f>
         <v>-4.1958041958042869E-2</v>
       </c>
       <c r="O29" s="48">
@@ -49282,7 +54788,7 @@
         <v>9</v>
       </c>
       <c r="Z29" s="48">
-        <f t="shared" ref="Z29:AI29" si="26">(Z12/Z11)-1</f>
+        <f t="shared" ref="Z29:AH29" si="26">(Z12/Z11)-1</f>
         <v>0.11294123697345992</v>
       </c>
       <c r="AA29" s="48">
@@ -49332,7 +54838,7 @@
         <v>-5.8573162138845558E-2</v>
       </c>
       <c r="D30" s="48">
-        <f t="shared" ref="D30:K30" si="27">(D13/D12)-1</f>
+        <f t="shared" ref="D30:J30" si="27">(D13/D12)-1</f>
         <v>-7.3130368447554828E-3</v>
       </c>
       <c r="E30" s="48">
@@ -49364,7 +54870,7 @@
         <v>10</v>
       </c>
       <c r="N30" s="48">
-        <f t="shared" ref="N30:W30" si="28">(N13/N12)-1</f>
+        <f t="shared" ref="N30:V30" si="28">(N13/N12)-1</f>
         <v>8.3941755633578863E-2</v>
       </c>
       <c r="O30" s="48">
@@ -49404,7 +54910,7 @@
         <v>10</v>
       </c>
       <c r="Z30" s="48">
-        <f t="shared" ref="Z30:AI30" si="29">(Z13/Z12)-1</f>
+        <f t="shared" ref="Z30:AH30" si="29">(Z13/Z12)-1</f>
         <v>0.29492606703069701</v>
       </c>
       <c r="AA30" s="48">
@@ -49454,7 +54960,7 @@
         <v>-1.247087616317033E-2</v>
       </c>
       <c r="D31" s="48">
-        <f t="shared" ref="D31:K31" si="30">(D14/D13)-1</f>
+        <f t="shared" ref="D31:J31" si="30">(D14/D13)-1</f>
         <v>0.1315294634871953</v>
       </c>
       <c r="E31" s="48">
@@ -49486,7 +54992,7 @@
         <v>11</v>
       </c>
       <c r="N31" s="48">
-        <f t="shared" ref="N31:W31" si="31">(N14/N13)-1</f>
+        <f t="shared" ref="N31:V31" si="31">(N14/N13)-1</f>
         <v>1.8154904705153463E-2</v>
       </c>
       <c r="O31" s="48">
@@ -49526,7 +55032,7 @@
         <v>11</v>
       </c>
       <c r="Z31" s="48">
-        <f t="shared" ref="Z31:AI31" si="32">(Z14/Z13)-1</f>
+        <f t="shared" ref="Z31:AH31" si="32">(Z14/Z13)-1</f>
         <v>3.5510425992806738E-2</v>
       </c>
       <c r="AA31" s="48">
@@ -49576,7 +55082,7 @@
         <v>-0.12110069052746197</v>
       </c>
       <c r="D32" s="48">
-        <f t="shared" ref="D32:K32" si="33">(D15/D14)-1</f>
+        <f t="shared" ref="D32:J32" si="33">(D15/D14)-1</f>
         <v>-0.23770499130111888</v>
       </c>
       <c r="E32" s="48">
@@ -49608,7 +55114,7 @@
         <v>12</v>
       </c>
       <c r="N32" s="48">
-        <f t="shared" ref="N32:W32" si="34">(N15/N14)-1</f>
+        <f t="shared" ref="N32:V32" si="34">(N15/N14)-1</f>
         <v>5.999979550051826E-3</v>
       </c>
       <c r="O32" s="48">
@@ -49648,7 +55154,7 @@
         <v>12</v>
       </c>
       <c r="Z32" s="48">
-        <f t="shared" ref="Z32:AI32" si="35">(Z15/Z14)-1</f>
+        <f t="shared" ref="Z32:AH32" si="35">(Z15/Z14)-1</f>
         <v>0.20738900041843955</v>
       </c>
       <c r="AA32" s="48">
@@ -49694,7 +55200,7 @@
         <v>0.11181669395141258</v>
       </c>
       <c r="C33" s="23">
-        <f t="shared" ref="C33:K33" si="36">SUM(C22:C32)</f>
+        <f t="shared" ref="C33:J33" si="36">SUM(C22:C32)</f>
         <v>-0.43688280957990833</v>
       </c>
       <c r="D33" s="23">
@@ -49828,7 +55334,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+      <selection activeCell="A18" sqref="A18:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50850,26 +56356,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34407E0A-A23D-4E41-AEA6-9DCF313F1E1B}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -50900,10 +56421,21 @@
       <c r="J2" s="21">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="50">
         <v>7.9200000000000007E-2</v>
@@ -50932,504 +56464,447 @@
       <c r="J3" s="50">
         <v>4.3499999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="50"/>
+      <c r="L3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="50">
+        <f>SUM(H3:J3)</f>
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="N3" s="50">
+        <f>SUM(F3:J3)</f>
+        <v>0.2863</v>
+      </c>
+      <c r="O3" s="50">
+        <f>SUM(B3:J3)</f>
+        <v>0.72689999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="50">
+        <f>AVERAGE(B5:B7)</f>
+        <v>0.23391942655040829</v>
+      </c>
+      <c r="C4" s="50">
+        <f>AVERAGE(C5:C7)</f>
+        <v>-0.49487645263635222</v>
+      </c>
+      <c r="D4" s="50">
+        <f>AVERAGE(D5:D7)</f>
+        <v>-0.578072185510906</v>
+      </c>
+      <c r="E4" s="50">
+        <f>AVERAGE(E5:E7)</f>
+        <v>1.2534784540925028</v>
+      </c>
+      <c r="F4" s="50">
+        <f>AVERAGE(F5:F7)</f>
+        <v>6.4947554868687904E-2</v>
+      </c>
+      <c r="G4" s="50">
+        <f>AVERAGE(G5:G7)</f>
+        <v>0.18304975174946492</v>
+      </c>
+      <c r="H4" s="50">
+        <f>AVERAGE(H5:H7)</f>
+        <v>0.42125643358500886</v>
+      </c>
+      <c r="I4" s="50">
+        <f>AVERAGE(I5:I7)</f>
+        <v>0.7755791387553348</v>
+      </c>
+      <c r="J4" s="50">
+        <f>AVERAGE(J5:J7)</f>
+        <v>7.0276306120707635E-2</v>
+      </c>
+      <c r="K4" s="50"/>
+      <c r="L4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="50">
+        <f t="shared" ref="M4:M7" si="0">SUM(H4:J4)</f>
+        <v>1.2671118784610513</v>
+      </c>
+      <c r="N4" s="50">
+        <f t="shared" ref="N4:N7" si="1">SUM(F4:J4)</f>
+        <v>1.5151091850792042</v>
+      </c>
+      <c r="O4" s="50">
+        <f t="shared" ref="O4:O7" si="2">SUM(B4:J4)</f>
+        <v>1.929558427574857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5">
         <v>0.11181669395141258</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <v>-0.43688280957990833</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>-0.68756004467701193</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="5">
         <v>1.3307746857630582</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F5" s="5">
         <v>0.1277000364860591</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G5" s="5">
         <v>0.10902732903646473</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H5" s="5">
         <v>0.41290204002332842</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I5" s="5">
         <v>0.55468087727718651</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="5">
         <v>0.14905437496641183</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="50">
+        <f t="shared" si="0"/>
+        <v>1.1166372922669268</v>
+      </c>
+      <c r="N5" s="50">
+        <f t="shared" si="1"/>
+        <v>1.3533646577894505</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" si="2"/>
+        <v>1.6715131832470012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="5">
         <v>3.1946246020095548E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="5">
         <v>-0.39164904371130094</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>-0.86423155758436354</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>1.173439894980109</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>0.26322958386239692</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G6" s="5">
         <v>0.15987887446520788</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H6" s="5">
         <v>0.43663708302000315</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I6" s="5">
         <v>0.54310326513421803</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J6" s="5">
         <v>0.20169570033067252</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" si="0"/>
+        <v>1.1814360484848936</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="1"/>
+        <v>1.6045445068124984</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="2"/>
+        <v>1.5540500465170388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B7" s="53">
         <v>0.55799533967971671</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C7" s="53">
         <v>-0.65609750461784733</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D7" s="53">
         <v>-0.18242495427134242</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E7" s="53">
         <v>1.2562207815343414</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F7" s="53">
         <v>-0.19608695574239232</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G7" s="53">
         <v>0.28024305174672215</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H7" s="53">
         <v>0.4142301777116949</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I7" s="53">
         <v>1.2289532738545996</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J7" s="53">
         <v>-0.13992115693496143</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="K7" s="53"/>
+      <c r="L7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="50">
+        <f t="shared" si="0"/>
+        <v>1.5032622946313332</v>
+      </c>
+      <c r="N7" s="50">
+        <f t="shared" si="1"/>
+        <v>1.5874183906356629</v>
+      </c>
+      <c r="O7" s="50">
+        <f t="shared" si="2"/>
+        <v>2.5631120529605314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="50">
-        <f>AVERAGE(B4:B6)</f>
+      <c r="B10" s="21">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2014</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="21">
+        <v>2016</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="21">
+        <v>2018</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2019</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2020</v>
+      </c>
+      <c r="J10" s="21">
+        <v>2021</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="54">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0.104</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="E11" s="54">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F11" s="54">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="G11" s="54">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="H11" s="54">
+        <v>5.79E-2</v>
+      </c>
+      <c r="I11" s="54">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="J11" s="54">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="54">
         <v>0.23391942655040829</v>
       </c>
-      <c r="C7" s="50">
-        <f t="shared" ref="C7:J7" si="0">AVERAGE(C4:C6)</f>
+      <c r="C12" s="54">
         <v>-0.49487645263635222</v>
       </c>
-      <c r="D7" s="50">
-        <f t="shared" si="0"/>
+      <c r="D12" s="54">
         <v>-0.578072185510906</v>
       </c>
-      <c r="E7" s="50">
-        <f t="shared" si="0"/>
+      <c r="E12" s="54">
         <v>1.2534784540925028</v>
       </c>
-      <c r="F7" s="50">
-        <f t="shared" si="0"/>
+      <c r="F12" s="54">
         <v>6.4947554868687904E-2</v>
       </c>
-      <c r="G7" s="50">
-        <f t="shared" si="0"/>
+      <c r="G12" s="54">
         <v>0.18304975174946492</v>
       </c>
-      <c r="H7" s="50">
-        <f t="shared" si="0"/>
+      <c r="H12" s="54">
         <v>0.42125643358500886</v>
       </c>
-      <c r="I7" s="50">
-        <f t="shared" si="0"/>
+      <c r="I12" s="54">
         <v>0.7755791387553348</v>
       </c>
-      <c r="J7" s="50">
-        <f t="shared" si="0"/>
+      <c r="J12" s="54">
         <v>7.0276306120707635E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="21">
-        <v>2013</v>
-      </c>
-      <c r="C9" s="21">
-        <v>2014</v>
-      </c>
-      <c r="D9" s="21">
-        <v>2015</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2016</v>
-      </c>
-      <c r="F9" s="21">
-        <v>2017</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2018</v>
-      </c>
-      <c r="H9" s="21">
-        <v>2019</v>
-      </c>
-      <c r="I9" s="21">
-        <v>2020</v>
-      </c>
-      <c r="J9" s="21">
-        <v>2021</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="54">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="C10" s="54">
-        <v>0.104</v>
-      </c>
-      <c r="D10" s="54">
-        <v>0.12540000000000001</v>
-      </c>
-      <c r="E10" s="54">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F10" s="54">
-        <v>9.5299999999999996E-2</v>
-      </c>
-      <c r="G10" s="54">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="H10" s="54">
-        <v>5.79E-2</v>
-      </c>
-      <c r="I10" s="54">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="J10" s="54">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="55">
-        <f>SUM(B10:J10)</f>
-        <v>0.72689999999999999</v>
-      </c>
-      <c r="M10" s="55">
-        <f>SUM(H10:J10)</f>
-        <v>0.12859999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="54">
-        <v>0.23391942655040829</v>
-      </c>
-      <c r="C11" s="54">
-        <v>-0.49487645263635222</v>
-      </c>
-      <c r="D11" s="54">
-        <v>-0.578072185510906</v>
-      </c>
-      <c r="E11" s="54">
-        <v>1.2534784540925028</v>
-      </c>
-      <c r="F11" s="54">
-        <v>6.4947554868687904E-2</v>
-      </c>
-      <c r="G11" s="54">
-        <v>0.18304975174946492</v>
-      </c>
-      <c r="H11" s="54">
-        <v>0.42125643358500886</v>
-      </c>
-      <c r="I11" s="54">
-        <v>0.7755791387553348</v>
-      </c>
-      <c r="J11" s="54">
-        <v>7.0276306120707635E-2</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="55">
-        <f>SUM(B11:J11)</f>
-        <v>1.929558427574857</v>
-      </c>
-      <c r="M11" s="55">
-        <f>SUM(H11:J11)</f>
-        <v>1.2671118784610513</v>
-      </c>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F11">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J11">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F2AAF6-1540-422B-A6A2-246EFBF1E222}">
+  <dimension ref="A40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1387F690-2DE4-4185-8107-6D3AFADCB1F8}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51459,6 +56934,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Tratamento de dados Selic x Ações.xlsx
+++ b/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Tratamento de dados Selic x Ações.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Insights\Dados Siderurgia Brasileira 2016~2022\2 Entrega - Cliclo 2\Passo 05 - Exploração dos dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B501457-D165-4A2A-BC6E-FFC785E7F2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBBB17A-44B6-453F-8418-617022C2DB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Banco de Dados Cotações.csv" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="5. Cotações Selic" sheetId="5" r:id="rId5"/>
     <sheet name="6. Comparativo" sheetId="7" r:id="rId6"/>
     <sheet name="7. Análise Gráfica" sheetId="8" r:id="rId7"/>
-    <sheet name="Planilha2" sheetId="9" r:id="rId8"/>
-    <sheet name="o que eu estou fazendo" sheetId="2" r:id="rId9"/>
+    <sheet name="o que eu estou fazendo" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.Banco de Dados Cotações.csv'!$B$2:$E$2381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. Query Filtrada'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="61">
   <si>
     <t>Mes/Ano</t>
   </si>
@@ -193,51 +193,6 @@
     <t>Rendimento Médio das Ações</t>
   </si>
   <si>
-    <t>fato que possa ser preso</t>
-  </si>
-  <si>
-    <t>caixa da rejane</t>
-  </si>
-  <si>
-    <t>unicuritiba</t>
-  </si>
-  <si>
-    <t>tem que vc ano tem emprego</t>
-  </si>
-  <si>
-    <t>não transo</t>
-  </si>
-  <si>
-    <t>Obesidade</t>
-  </si>
-  <si>
-    <t>baixa app de exercicio</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Levar Centro</t>
-  </si>
-  <si>
-    <t>resolver problemas</t>
-  </si>
-  <si>
-    <t>pega no notebook</t>
-  </si>
-  <si>
-    <t>deixa pra depois</t>
-  </si>
-  <si>
-    <t>não posso fazer nada</t>
-  </si>
-  <si>
-    <t>emprega</t>
-  </si>
-  <si>
-    <t>ansiedade</t>
-  </si>
-  <si>
     <t>2017~2021</t>
   </si>
   <si>
@@ -260,6 +215,15 @@
   </si>
   <si>
     <t xml:space="preserve">verificar sobre as tendencias da Selic o que é Selic </t>
+  </si>
+  <si>
+    <t>*estipular valor para retirada se se aproximar da selic</t>
+  </si>
+  <si>
+    <t>88097-6</t>
+  </si>
+  <si>
+    <t>* ficar com ações enquanto tiver o dolar em um patamar</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1251,10 @@
                   <c:v>5.79E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7199999999999998E-2</c:v>
+                  <c:v>5.79E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3499999999999997E-2</c:v>
+                  <c:v>5.79E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,10 +2105,10 @@
                         <c:v>5.79E-2</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.7199999999999998E-2</c:v>
+                        <c:v>5.79E-2</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>4.3499999999999997E-2</c:v>
+                        <c:v>5.79E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2163,7 +2127,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'6. Comparativo'!$A$4</c15:sqref>
@@ -2192,7 +2156,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'6. Comparativo'!$B$2:$J$2</c15:sqref>
@@ -2234,7 +2198,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'6. Comparativo'!$B$4:$J$4</c15:sqref>
@@ -2275,7 +2239,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-F110-4EA5-A086-E3596994A66C}"/>
                   </c:ext>
@@ -2655,7 +2619,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.12859999999999999</c:v>
+                  <c:v>0.17369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2671118784610513</c:v>
@@ -3026,7 +2990,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2863</c:v>
+                  <c:v>0.33140000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5151091850792042</c:v>
@@ -3397,7 +3361,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72689999999999999</c:v>
+                  <c:v>0.77199999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.929558427574857</c:v>
@@ -6792,7 +6756,7 @@
   <dimension ref="A1:H2381"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+      <selection activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48328,8 +48292,8 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="B1:D1"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49965,6 +49929,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{BDE82097-6B3C-40C1-AF53-4D1BA8E3CCE3}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -49974,7 +49939,7 @@
   <dimension ref="B1:X67"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52249,14 +52214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63721A7B-277C-4F97-936A-F25CCC22C64B}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y19" sqref="Y19"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.7109375" customWidth="1"/>
     <col min="24" max="24" width="3.7109375" customWidth="1"/>
   </cols>
@@ -55334,7 +55300,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:K32"/>
+      <selection activeCell="K20" sqref="K20:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56356,13 +56322,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34407E0A-A23D-4E41-AEA6-9DCF313F1E1B}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="J3" activeCellId="1" sqref="B5:J7 B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56378,16 +56344,16 @@
         <v>44</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -56427,10 +56393,10 @@
         <v>47</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -56459,10 +56425,10 @@
         <v>5.79E-2</v>
       </c>
       <c r="I3" s="50">
-        <v>2.7199999999999998E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="J3" s="50">
-        <v>4.3499999999999997E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="K3" s="50"/>
       <c r="L3" s="29" t="s">
@@ -56470,15 +56436,15 @@
       </c>
       <c r="M3" s="50">
         <f>SUM(H3:J3)</f>
-        <v>0.12859999999999999</v>
+        <v>0.17369999999999999</v>
       </c>
       <c r="N3" s="50">
         <f>SUM(F3:J3)</f>
-        <v>0.2863</v>
+        <v>0.33140000000000003</v>
       </c>
       <c r="O3" s="50">
         <f>SUM(B3:J3)</f>
-        <v>0.72689999999999999</v>
+        <v>0.77199999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -56486,39 +56452,39 @@
         <v>49</v>
       </c>
       <c r="B4" s="50">
-        <f>AVERAGE(B5:B7)</f>
+        <f t="shared" ref="B4:J4" si="0">AVERAGE(B5:B7)</f>
         <v>0.23391942655040829</v>
       </c>
       <c r="C4" s="50">
-        <f>AVERAGE(C5:C7)</f>
+        <f t="shared" si="0"/>
         <v>-0.49487645263635222</v>
       </c>
       <c r="D4" s="50">
-        <f>AVERAGE(D5:D7)</f>
+        <f t="shared" si="0"/>
         <v>-0.578072185510906</v>
       </c>
       <c r="E4" s="50">
-        <f>AVERAGE(E5:E7)</f>
+        <f t="shared" si="0"/>
         <v>1.2534784540925028</v>
       </c>
       <c r="F4" s="50">
-        <f>AVERAGE(F5:F7)</f>
+        <f t="shared" si="0"/>
         <v>6.4947554868687904E-2</v>
       </c>
       <c r="G4" s="50">
-        <f>AVERAGE(G5:G7)</f>
+        <f t="shared" si="0"/>
         <v>0.18304975174946492</v>
       </c>
       <c r="H4" s="50">
-        <f>AVERAGE(H5:H7)</f>
+        <f t="shared" si="0"/>
         <v>0.42125643358500886</v>
       </c>
       <c r="I4" s="50">
-        <f>AVERAGE(I5:I7)</f>
+        <f t="shared" si="0"/>
         <v>0.7755791387553348</v>
       </c>
       <c r="J4" s="50">
-        <f>AVERAGE(J5:J7)</f>
+        <f t="shared" si="0"/>
         <v>7.0276306120707635E-2</v>
       </c>
       <c r="K4" s="50"/>
@@ -56526,7 +56492,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="50">
-        <f t="shared" ref="M4:M7" si="0">SUM(H4:J4)</f>
+        <f>SUM(H4:J4)</f>
         <v>1.2671118784610513</v>
       </c>
       <c r="N4" s="50">
@@ -56534,7 +56500,7 @@
         <v>1.5151091850792042</v>
       </c>
       <c r="O4" s="50">
-        <f t="shared" ref="O4:O7" si="2">SUM(B4:J4)</f>
+        <f t="shared" ref="O4:O6" si="2">SUM(B4:J4)</f>
         <v>1.929558427574857</v>
       </c>
     </row>
@@ -56574,7 +56540,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="50">
-        <f t="shared" si="0"/>
+        <f>SUM(H5:J5)</f>
         <v>1.1166372922669268</v>
       </c>
       <c r="N5" s="50">
@@ -56622,7 +56588,7 @@
         <v>25</v>
       </c>
       <c r="M6" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M6:M7" si="3">SUM(H6:J6)</f>
         <v>1.1814360484848936</v>
       </c>
       <c r="N6" s="50">
@@ -56670,7 +56636,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5032622946313332</v>
       </c>
       <c r="N7" s="50">
@@ -56678,11 +56644,15 @@
         <v>1.5874183906356629</v>
       </c>
       <c r="O7" s="50">
-        <f t="shared" si="2"/>
+        <f>SUM(B7:J7)</f>
         <v>2.5631120529605314</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>45</v>
@@ -56716,6 +56686,9 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
@@ -56791,7 +56764,53 @@
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="M5:M7 M3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N7 N3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O7 O3">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -56801,7 +56820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F2AAF6-1540-422B-A6A2-246EFBF1E222}">
   <dimension ref="A40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -56809,7 +56828,7 @@
   <sheetData>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="56" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -56819,92 +56838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1387F690-2DE4-4185-8107-6D3AFADCB1F8}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56936,7 +56874,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
